--- a/bl_resources/Resources/integrate_test.xlsx
+++ b/bl_resources/Resources/integrate_test.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="20115" windowHeight="7065"/>
+    <workbookView xWindow="240" yWindow="510" windowWidth="20115" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Отчет о результатах 1" sheetId="3" r:id="rId2"/>
     <sheet name="Отчет о допустимости 1" sheetId="6" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$4:$U$4</definedName>
@@ -20,21 +19,21 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_lhs0" localSheetId="0" hidden="1">Лист1!$V$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$4:$U$4</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$V$15:$V$21</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Лист1!$V$36:$V$42</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Лист1!$V$9</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Лист1!$V$7</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Лист1!$V$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$V$36:$V$42</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$V$25</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Лист1!$V$22:$V$24</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Лист1!$V$14</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Лист1!$V$12</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Лист1!$V$15:$V$21</definedName>
     <definedName name="solver_lhs15" localSheetId="0" hidden="1">Лист1!$V$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$V$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$V$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$V$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$V$14</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$V$7:$V$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$V$6</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$V$5</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$V$22:$V$35</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$V$35</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$V$26:$V$34</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$B$4:$U$4</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$V$6</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$V$5</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$V$11</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$V$7:$V$10</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$V$13</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -42,43 +41,43 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">11</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">14</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$V$43</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel11" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel15" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs0" localSheetId="0" hidden="1">Лист1!$X$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$X$15:$X$21</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Лист1!$X$36:$X$42</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Лист1!$X$9</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Лист1!$X$7</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Лист1!$X$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$X$36:$X$42</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$X$25</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Лист1!$X$22:$X$24</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Лист1!$X$14</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Лист1!$X$12</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Лист1!$X$15:$X$21</definedName>
     <definedName name="solver_rhs15" localSheetId="0" hidden="1">Лист1!$X$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$X$11</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$X$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$X$13</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$X$14</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$X$7:$X$10</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$X$6</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$X$5</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$X$22:$X$35</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$X$35</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$X$26:$X$34</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$X$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$X$5</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$X$11</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$X$7:$X$10</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$X$13</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="236">
   <si>
     <t>Наименование ограничения</t>
   </si>
@@ -206,9 +205,6 @@
   </si>
   <si>
     <t>Параметры поиска решения</t>
-  </si>
-  <si>
-    <t>Ячейка целевой функции (Минимум)</t>
   </si>
   <si>
     <t>Ячейка</t>
@@ -804,49 +800,59 @@
     <t>Cобственные средства-внеоборотные активы (СОС)</t>
   </si>
   <si>
-    <t xml:space="preserve">61257926,6548
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32342083,02154
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296298571,04854
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198762177,94564
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16103266,0012
-</t>
-  </si>
-  <si>
     <t>Отчет создан: 03.02.2016 23:01:27</t>
   </si>
   <si>
     <t xml:space="preserve">Интенрированный коэффииент </t>
   </si>
   <si>
-    <t>1(коэф маневренности)</t>
+    <t>1(коэф ман)</t>
   </si>
   <si>
     <t>2(коэф.автономии)</t>
   </si>
   <si>
-    <t>3(коэф.клиентской базы)</t>
+    <t>3(коэф.кл.базы)</t>
+  </si>
+  <si>
+    <t>Кавтономии</t>
+  </si>
+  <si>
+    <t>Интегрированный коэффициент</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Максимум)</t>
+  </si>
+  <si>
+    <t>Отчет создан: 06.02.2016 23:01:27</t>
+  </si>
+  <si>
+    <r>
+      <t>К</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>клиентской базы</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0;[Black]0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Black]0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,13 +860,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -968,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1335,15 +1334,6 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1462,291 +1452,415 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2049,79 +2163,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="6" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="2" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" style="2" customWidth="1"/>
     <col min="24" max="24" width="12.85546875" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="98" t="s">
+      <c r="A1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="103" t="s">
+      <c r="I1" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="122" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="24"/>
@@ -2132,7 +2246,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="11"/>
       <c r="U1" s="24"/>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="120" t="s">
         <v>2</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -2143,33 +2257,49 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="102"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="S2" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="V2" s="120"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2207,102 +2337,102 @@
         <v>26</v>
       </c>
       <c r="N3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="P3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="T3" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="U3" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V3" s="12"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
-      <c r="B4" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="63">
-        <v>193916799.03564</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="65">
-        <v>29043411.568879999</v>
-      </c>
-      <c r="F4" s="66">
-        <v>30133296.96759</v>
-      </c>
-      <c r="G4" s="65">
-        <v>198956493.56595999</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="65">
-        <v>191427945.58423001</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="63">
-        <v>258599359.04539999</v>
-      </c>
-      <c r="M4" s="68">
-        <v>99192828.053414002</v>
-      </c>
-      <c r="N4" s="69">
-        <v>0.58959853122299999</v>
-      </c>
-      <c r="O4" s="70">
-        <v>1.1356545448699999</v>
-      </c>
-      <c r="P4" s="71">
-        <v>0.687016978133692</v>
-      </c>
-      <c r="Q4" s="71">
-        <v>0.2175383144318</v>
-      </c>
-      <c r="R4" s="72">
-        <v>0.71936489999999997</v>
-      </c>
-      <c r="S4" s="71">
-        <v>0.98978183624024996</v>
-      </c>
-      <c r="T4" s="72">
-        <v>1.0199578123834101</v>
-      </c>
-      <c r="U4" s="69">
-        <v>0.88246551046814703</v>
+    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="116"/>
+      <c r="B4" s="108">
+        <v>38498439.148965001</v>
+      </c>
+      <c r="C4" s="109">
+        <v>189254963.01451001</v>
+      </c>
+      <c r="D4" s="110">
+        <v>289654373.51244998</v>
+      </c>
+      <c r="E4" s="111">
+        <v>28474693.549869999</v>
+      </c>
+      <c r="F4" s="112">
+        <v>30321759.96759</v>
+      </c>
+      <c r="G4" s="111">
+        <v>199124569.72698</v>
+      </c>
+      <c r="H4" s="108">
+        <v>193869365.56784999</v>
+      </c>
+      <c r="I4" s="108">
+        <v>16998474.31569</v>
+      </c>
+      <c r="J4" s="111">
+        <v>183965459.16488999</v>
+      </c>
+      <c r="K4" s="113">
+        <v>54999632.174589999</v>
+      </c>
+      <c r="L4" s="109">
+        <v>261154369.45989001</v>
+      </c>
+      <c r="M4" s="114">
+        <v>98145658.053414002</v>
+      </c>
+      <c r="N4" s="57">
+        <v>0.65994745636899999</v>
+      </c>
+      <c r="O4" s="58">
+        <v>1.01456985836</v>
+      </c>
+      <c r="P4" s="59">
+        <v>0.69265874595999999</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>0.28458962546</v>
+      </c>
+      <c r="R4" s="60">
+        <v>0.73256987456</v>
+      </c>
+      <c r="S4" s="59">
+        <v>0.98995479999000002</v>
+      </c>
+      <c r="T4" s="60">
+        <v>1.03956987456321</v>
+      </c>
+      <c r="U4" s="57">
+        <v>0.78658965478959997</v>
       </c>
       <c r="V4" s="12"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
-        <v>216</v>
+      <c r="A5" s="117" t="s">
+        <v>215</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2328,9 +2458,9 @@
       <c r="S5" s="3"/>
       <c r="T5" s="11"/>
       <c r="U5" s="24"/>
-      <c r="V5" s="12">
+      <c r="V5" s="103">
         <f>SUMPRODUCT($B$4:$U$4,B5:U5)</f>
-        <v>0</v>
+        <v>-106328747.60725999</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>9</v>
@@ -2340,7 +2470,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2365,9 +2495,9 @@
       <c r="S6" s="3"/>
       <c r="T6" s="11"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="12">
-        <f t="shared" ref="V6:V11" si="0">SUMPRODUCT($B$4:$U$4,B6:U6)</f>
-        <v>0</v>
+      <c r="V6" s="115">
+        <f>SUMPRODUCT($B$4:$U$4,B6:U6)</f>
+        <v>-193225059.66099501</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>28</v>
@@ -2377,8 +2507,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
-        <v>217</v>
+      <c r="A7" s="68" t="s">
+        <v>235</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2405,8 +2535,8 @@
       <c r="T7" s="11"/>
       <c r="U7" s="24"/>
       <c r="V7" s="12">
-        <f t="shared" si="0"/>
-        <v>45814137.098575979</v>
+        <f t="shared" ref="V7:V10" si="0">SUMPRODUCT($B$4:$U$4,B7:U7)</f>
+        <v>51952202.39506799</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>9</v>
@@ -2416,8 +2546,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>218</v>
+      <c r="A8" s="68" t="s">
+        <v>217</v>
       </c>
       <c r="B8" s="1">
         <v>-0.5</v>
@@ -2443,9 +2573,9 @@
       <c r="S8" s="3"/>
       <c r="T8" s="11"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="V8" s="102">
+        <f>SUMPRODUCT($B$4:$U$4,B8:U8)</f>
+        <v>-2250745.2587925009</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>9</v>
@@ -2455,8 +2585,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
-        <v>219</v>
+      <c r="A9" s="67" t="s">
+        <v>218</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2483,8 +2613,8 @@
       <c r="T9" s="11"/>
       <c r="U9" s="24"/>
       <c r="V9" s="12">
-        <f>-(SUMPRODUCT($B$4:$U$4,B9:U9))</f>
-        <v>51719871.809080005</v>
+        <f>SUMPRODUCT($B$4:$U$4,B9:U9)</f>
+        <v>2768758.2826119959</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>9</v>
@@ -2494,8 +2624,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100" t="s">
-        <v>220</v>
+      <c r="A10" s="118" t="s">
+        <v>219</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2523,7 +2653,7 @@
       <c r="U10" s="24"/>
       <c r="V10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5594022.7847574949</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>9</v>
@@ -2533,7 +2663,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -2559,8 +2689,8 @@
       <c r="T11" s="11"/>
       <c r="U11" s="24"/>
       <c r="V11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUMPRODUCT($B$4:$U$4,B11:U11)</f>
+        <v>-52336851.917732477</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>28</v>
@@ -2570,8 +2700,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="101" t="s">
-        <v>221</v>
+      <c r="A12" s="119" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -2597,9 +2727,9 @@
       <c r="S12" s="3"/>
       <c r="T12" s="11"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="12">
-        <f>-(SUMPRODUCT($B$4:$U$4,B12:U12))</f>
-        <v>86967299.020800397</v>
+      <c r="V12" s="103">
+        <f>SUMPRODUCT($B$4:$U$4,B12:U12)</f>
+        <v>-83539106.440515593</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>9</v>
@@ -2609,7 +2739,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>-0.99</v>
@@ -2636,7 +2766,7 @@
       <c r="U13" s="24"/>
       <c r="V13" s="12">
         <f>SUMPRODUCT($B$4:$U$4,B13:U13)</f>
-        <v>-92784802.991869584</v>
+        <v>-89216755.330950901</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>28</v>
@@ -2646,8 +2776,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83" t="s">
-        <v>222</v>
+      <c r="A14" s="69" t="s">
+        <v>221</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2673,9 +2803,9 @@
       <c r="S14" s="13"/>
       <c r="T14" s="18"/>
       <c r="U14" s="24"/>
-      <c r="V14" s="12">
-        <f>-(SUMPRODUCT($B$4:$U$4,B14:U14))</f>
-        <v>1089885.3987100013</v>
+      <c r="V14" s="103">
+        <f>SUMPRODUCT($B$4:$U$4,B14:U14)</f>
+        <v>-1847066.4177200012</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>9</v>
@@ -2685,8 +2815,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
-        <v>189</v>
+      <c r="A15" s="70" t="s">
+        <v>188</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -2708,19 +2838,20 @@
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="74">
-        <v>12598565</v>
-      </c>
-      <c r="W15" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="X15" s="76">
+      <c r="V15" s="104">
+        <f>(B4-D4*N4)</f>
+        <v>-152658227.87673262</v>
+      </c>
+      <c r="W15" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X15" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
-        <v>190</v>
+      <c r="A16" s="71" t="s">
+        <v>189</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -2742,20 +2873,20 @@
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="74">
-        <f>-(G4-J4*O4)</f>
-        <v>18439522.851897866</v>
-      </c>
-      <c r="W16" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="X16" s="76">
+      <c r="V16" s="62">
+        <f>(G4-J4*O4)</f>
+        <v>12478759.878925204</v>
+      </c>
+      <c r="W16" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X16" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
-        <v>191</v>
+      <c r="A17" s="71" t="s">
+        <v>190</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2763,7 +2894,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="44"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -2777,19 +2908,20 @@
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="74">
-        <v>465789354</v>
-      </c>
-      <c r="W17" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="X17" s="76">
+      <c r="V17" s="104">
+        <f>(I4-B4*P4)</f>
+        <v>-9667806.266649466</v>
+      </c>
+      <c r="W17" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X17" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
-        <v>192</v>
+      <c r="A18" s="71" t="s">
+        <v>191</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2797,7 +2929,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="43"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -2811,19 +2943,20 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="74">
-        <v>1238795</v>
-      </c>
-      <c r="W18" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="X18" s="76">
+      <c r="V18" s="104">
+        <f>(K4-L4*Q4)</f>
+        <v>-19322192.017242558</v>
+      </c>
+      <c r="W18" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X18" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
-        <v>193</v>
+      <c r="A19" s="71" t="s">
+        <v>192</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -2845,19 +2978,20 @@
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="24"/>
-      <c r="V19" s="74">
-        <v>156546548</v>
-      </c>
-      <c r="W19" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="X19" s="76">
+      <c r="V19" s="104">
+        <f>(H4-D4*R4)</f>
+        <v>-18322702.501920879</v>
+      </c>
+      <c r="W19" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
-        <v>223</v>
+      <c r="A20" s="72" t="s">
+        <v>222</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -2865,7 +2999,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="61"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -2879,20 +3013,20 @@
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="24"/>
-      <c r="V20" s="77">
-        <f>-(M4-C4*S4)</f>
-        <v>92742497.373913303</v>
-      </c>
-      <c r="W20" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="X20" s="76">
+      <c r="V20" s="105">
+        <f>(M4-C4*S4)</f>
+        <v>-89208201.00473009</v>
+      </c>
+      <c r="W20" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
-        <v>194</v>
+      <c r="A21" s="73" t="s">
+        <v>193</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2914,20 +3048,20 @@
       <c r="S21" s="34"/>
       <c r="T21" s="35"/>
       <c r="U21" s="37"/>
-      <c r="V21" s="78">
-        <f>-(E4-F4*T4)</f>
-        <v>1691280.0860827416</v>
-      </c>
-      <c r="W21" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="X21" s="80">
+      <c r="V21" s="106">
+        <f>(E4-F4*T4)</f>
+        <v>-3046894.6561733</v>
+      </c>
+      <c r="W21" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
-        <v>233</v>
+      <c r="A22" s="74" t="s">
+        <v>227</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -2953,7 +3087,7 @@
       </c>
       <c r="V22" s="24">
         <f>SUMPRODUCT($B$4:$U$4,B22:U22)</f>
-        <v>0.88246551046814703</v>
+        <v>0.78658965478959997</v>
       </c>
       <c r="W22" s="24" t="s">
         <v>9</v>
@@ -2963,8 +3097,8 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
-        <v>233</v>
+      <c r="A23" s="74" t="s">
+        <v>227</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -3002,9 +3136,9 @@
       <c r="U23" s="24">
         <v>-7</v>
       </c>
-      <c r="V23" s="24">
-        <f>-(SUMPRODUCT($B$4:$U$4,B23:U23))</f>
-        <v>0.81834565599487785</v>
+      <c r="V23" s="107">
+        <f>SUMPRODUCT($B$4:$U$4,B23:U23)</f>
+        <v>-9.2267348264990723E-2</v>
       </c>
       <c r="W23" s="24" t="s">
         <v>9</v>
@@ -3012,11 +3146,11 @@
       <c r="X23" s="24">
         <v>0</v>
       </c>
-      <c r="Z23" s="59"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
-        <v>224</v>
+      <c r="A24" s="75" t="s">
+        <v>223</v>
       </c>
       <c r="B24" s="15">
         <v>1</v>
@@ -3042,18 +3176,18 @@
       <c r="U24" s="38"/>
       <c r="V24" s="17">
         <f>SUMPRODUCT($B$4:$U$4,B24:U24)</f>
-        <v>0</v>
+        <v>38498439.148965001</v>
       </c>
       <c r="W24" s="15" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X24" s="15">
         <v>32342083</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
-        <v>225</v>
+      <c r="A25" s="68" t="s">
+        <v>224</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -3078,18 +3212,18 @@
       <c r="T25" s="11"/>
       <c r="U25" s="24"/>
       <c r="V25" s="17">
-        <f t="shared" ref="V25:V34" si="1">SUMPRODUCT($B$4:$U$4,B25:U25)</f>
-        <v>193916799.03564</v>
+        <f t="shared" ref="V25:V35" si="1">SUMPRODUCT($B$4:$U$4,B25:U25)</f>
+        <v>189254963.01451001</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="X25" s="1">
         <v>193909688</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="1"/>
@@ -3115,7 +3249,8 @@
       <c r="T26" s="11"/>
       <c r="U26" s="24"/>
       <c r="V26" s="17">
-        <v>284924387</v>
+        <f t="shared" si="1"/>
+        <v>289654373.51244998</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>9</v>
@@ -3125,7 +3260,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1"/>
@@ -3152,7 +3287,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="17">
         <f t="shared" si="1"/>
-        <v>29043411.568879999</v>
+        <v>28474693.549869999</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>9</v>
@@ -3162,7 +3297,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="76" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1"/>
@@ -3189,7 +3324,7 @@
       <c r="U28" s="24"/>
       <c r="V28" s="17">
         <f t="shared" si="1"/>
-        <v>30133296.96759</v>
+        <v>30321759.96759</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>9</v>
@@ -3199,7 +3334,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="76" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="1"/>
@@ -3226,7 +3361,7 @@
       <c r="U29" s="24"/>
       <c r="V29" s="17">
         <f t="shared" si="1"/>
-        <v>198956493.56595999</v>
+        <v>199124569.72698</v>
       </c>
       <c r="W29" s="1" t="s">
         <v>9</v>
@@ -3236,7 +3371,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="1"/>
@@ -3263,7 +3398,7 @@
       <c r="U30" s="24"/>
       <c r="V30" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193869365.56784999</v>
       </c>
       <c r="W30" s="1" t="s">
         <v>9</v>
@@ -3273,8 +3408,8 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90" t="s">
-        <v>226</v>
+      <c r="A31" s="76" t="s">
+        <v>225</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3300,7 +3435,7 @@
       <c r="U31" s="24"/>
       <c r="V31" s="17">
         <f>SUMPRODUCT($B$4:$U$4,B31:U31)</f>
-        <v>0</v>
+        <v>16998474.31569</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>9</v>
@@ -3310,7 +3445,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="76" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="3"/>
@@ -3337,7 +3472,7 @@
       <c r="U32" s="24"/>
       <c r="V32" s="17">
         <f t="shared" si="1"/>
-        <v>191427945.58423001</v>
+        <v>183965459.16488999</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>9</v>
@@ -3346,8 +3481,8 @@
         <v>183005592</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="90" t="s">
+    <row r="33" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3"/>
@@ -3374,9 +3509,9 @@
       <c r="S33" s="3"/>
       <c r="T33" s="11"/>
       <c r="U33" s="24"/>
-      <c r="V33" s="17">
-        <f>-(SUMPRODUCT($B$4:$U$4,B33:U33))</f>
-        <v>258599359.04539999</v>
+      <c r="V33" s="101">
+        <f>SUMPRODUCT($B$4:$K$4,B33:K33)</f>
+        <v>54999632.174589999</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>9</v>
@@ -3385,8 +3520,8 @@
         <v>53983607</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="91" t="s">
+    <row r="34" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="77" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="13"/>
@@ -3411,9 +3546,9 @@
       <c r="S34" s="13"/>
       <c r="T34" s="18"/>
       <c r="U34" s="37"/>
-      <c r="V34" s="57">
+      <c r="V34" s="54">
         <f t="shared" si="1"/>
-        <v>258599359.04539999</v>
+        <v>261154369.45989001</v>
       </c>
       <c r="W34" s="14" t="s">
         <v>9</v>
@@ -3422,12 +3557,12 @@
         <v>258599359</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
+    <row r="35" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="86" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
@@ -3435,101 +3570,103 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="87"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3">
+      <c r="M35" s="87">
         <v>1</v>
       </c>
-      <c r="N35" s="3"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="S35" s="87"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="U35" s="87"/>
       <c r="V35" s="1">
+        <f t="shared" si="1"/>
+        <v>98145658.053414002</v>
+      </c>
+      <c r="W35" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="X35" s="93">
         <v>98895542</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X35" s="1">
-        <v>98895542</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92" t="s">
-        <v>234</v>
+    </row>
+    <row r="36" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="95" t="s">
+        <v>228</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="60">
+      <c r="F36" s="88"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="90">
         <f>P4-(2.11595084627261E-10*E4)</f>
-        <v>0.68087153500491049</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X36" s="3">
+        <v>0.68663364076857991</v>
+      </c>
+      <c r="W36" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="X36" s="91">
         <v>0.62</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3">
-        <v>0.78952323769999999</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X37" s="3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="93" t="s">
-        <v>236</v>
+    <row r="37" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16">
+        <f>N4-5.4467774421197E-11*B4</f>
+        <v>0.65785053206986599</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="X37" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="79" t="s">
+        <v>230</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3553,18 +3690,18 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3">
         <f>O4-1.25555355144371E-10*G4</f>
-        <v>1.110674491662047</v>
+        <v>0.98956870228995897</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X38" s="3">
         <v>0.88</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
-        <v>192</v>
+    <row r="39" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="79" t="s">
+        <v>191</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3588,18 +3725,18 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3">
         <f>Q4+7.80083501797973E-11*C4</f>
-        <v>0.23266544399671757</v>
+        <v>0.29935309288810047</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X39" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="93" t="s">
-        <v>193</v>
+    <row r="40" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="79" t="s">
+        <v>192</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3622,18 +3759,19 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3">
-        <v>0.79565245399999995</v>
+        <f>R4-1.58249857876202E-11*D4-3.00645955371076E-11*H4</f>
+        <v>0.72215749415301045</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X40" s="3">
         <v>0.72</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
-        <v>223</v>
+    <row r="41" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="80" t="s">
+        <v>222</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3656,19 +3794,19 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3">
-        <f>S4-7.04716621480215E-09*M4+6.77000059918315E-09*C4</f>
-        <v>1.603570335294513</v>
+        <f>S4-6.04716621480215E-09*M4+3.07000059918315E-09*C4</f>
+        <v>0.977464542332801</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X41" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
-        <v>194</v>
+    <row r="42" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="81" t="s">
+        <v>193</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3691,18 +3829,18 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3">
-        <f>T4-5.0141969807184E-08*E4+4.44177998698361E-08*F4</f>
-        <v>0.90211870052376231</v>
+        <f>T4-5.0041969807184E-08*E4+4.54177998698361E-08*F4</f>
+        <v>0.99178774558100913</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X42" s="3">
         <v>0.26</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89" t="s">
+    <row r="43" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="15"/>
@@ -3727,14 +3865,293 @@
       <c r="U43" s="38">
         <v>1</v>
       </c>
-      <c r="V43" s="58">
+      <c r="V43" s="97">
         <f>SUMPRODUCT($B$4:$U$4,B43:U43)</f>
-        <v>0.88246551046814703</v>
+        <v>0.78658965478959997</v>
       </c>
       <c r="W43" s="15" t="s">
         <v>29</v>
       </c>
       <c r="X43" s="15"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="98"/>
+      <c r="P47" s="98"/>
+      <c r="Q47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="S47" s="98"/>
+      <c r="T47" s="98"/>
+      <c r="U47" s="98"/>
+      <c r="V47" s="98"/>
+      <c r="W47" s="98"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="99"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C48" s="100"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="98"/>
+      <c r="X48" s="98"/>
+      <c r="Y48" s="98"/>
+      <c r="Z48" s="98"/>
+      <c r="AA48" s="98"/>
+      <c r="AB48" s="98"/>
+      <c r="AC48" s="98"/>
+      <c r="AD48" s="98"/>
+      <c r="AE48" s="98"/>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="98"/>
+      <c r="Q49" s="98"/>
+      <c r="R49" s="98"/>
+      <c r="S49" s="98"/>
+      <c r="T49" s="98"/>
+      <c r="U49" s="98"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="98"/>
+      <c r="X49" s="98"/>
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="98"/>
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="98"/>
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="98"/>
+      <c r="AE49" s="98"/>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="98"/>
+      <c r="P50" s="98"/>
+      <c r="Q50" s="98"/>
+      <c r="R50" s="98"/>
+      <c r="S50" s="98"/>
+      <c r="T50" s="98"/>
+      <c r="U50" s="98"/>
+      <c r="V50" s="98"/>
+      <c r="W50" s="98"/>
+      <c r="X50" s="98"/>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="98"/>
+      <c r="AB50" s="98"/>
+      <c r="AC50" s="98"/>
+      <c r="AD50" s="98"/>
+      <c r="AE50" s="98"/>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="98"/>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="98"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="98"/>
+      <c r="AB51" s="98"/>
+      <c r="AC51" s="98"/>
+      <c r="AD51" s="98"/>
+      <c r="AE51" s="98"/>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="98"/>
+      <c r="T52" s="98"/>
+      <c r="U52" s="98"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="98"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="98"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="98"/>
+      <c r="AB52" s="98"/>
+      <c r="AC52" s="98"/>
+      <c r="AD52" s="98"/>
+      <c r="AE52" s="98"/>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="98"/>
+      <c r="AD53" s="98"/>
+      <c r="AE53" s="98"/>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="98"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="98"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="98"/>
+      <c r="AD54" s="98"/>
+      <c r="AE54" s="98"/>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="98"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="98"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="98"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="98"/>
+      <c r="AC55" s="98"/>
+      <c r="AD55" s="98"/>
+      <c r="AE55" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3759,8 +4176,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="V22" formulaRange="1"/>
-    <ignoredError sqref="V33 V9 V12:V13" formula="1"/>
-    <ignoredError sqref="V23" formula="1" formulaRange="1"/>
+    <ignoredError sqref="V7" formula="1"/>
+    <ignoredError sqref="V33" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3769,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,7 +4196,7 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3790,12 +4207,12 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3833,36 +4250,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -3871,45 +4288,45 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="44">
         <v>32342083</v>
       </c>
-      <c r="E21" s="48">
-        <v>32342083.021540001</v>
+      <c r="E21" s="45">
+        <v>375410872.02153999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>6</v>
@@ -3917,13 +4334,13 @@
       <c r="D22" s="9">
         <v>193909688</v>
       </c>
-      <c r="E22" s="49">
-        <v>193916799.03564</v>
+      <c r="E22" s="46">
+        <v>193721525.01451001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>7</v>
@@ -3931,13 +4348,13 @@
       <c r="D23" s="9">
         <v>284924387</v>
       </c>
-      <c r="E23" s="49">
-        <v>296298571.04854</v>
+      <c r="E23" s="46">
+        <v>290131142.51244998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>8</v>
@@ -3945,16 +4362,16 @@
       <c r="D24" s="9">
         <v>26052530</v>
       </c>
-      <c r="E24" s="49">
-        <v>29043411.568879999</v>
+      <c r="E24" s="46">
+        <v>29132321.549869999</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
@@ -3962,13 +4379,13 @@
       <c r="D25" s="9">
         <v>29835944</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="46">
         <v>30133296.96759</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>16</v>
@@ -3976,13 +4393,13 @@
       <c r="D26" s="9">
         <v>198895545</v>
       </c>
-      <c r="E26" s="49">
-        <v>198956493.56595999</v>
+      <c r="E26" s="46">
+        <v>198991214.72698</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>17</v>
@@ -3990,13 +4407,13 @@
       <c r="D27" s="9">
         <v>189752199</v>
       </c>
-      <c r="E27" s="49">
-        <v>198762177.94564</v>
+      <c r="E27" s="46">
+        <v>191961234.56784999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>19</v>
@@ -4004,13 +4421,13 @@
       <c r="D28" s="9">
         <v>16103266</v>
       </c>
-      <c r="E28" s="49">
-        <v>16103266.0012</v>
+      <c r="E28" s="46">
+        <v>17212459.31569</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>20</v>
@@ -4018,13 +4435,13 @@
       <c r="D29" s="9">
         <v>183005592</v>
       </c>
-      <c r="E29" s="49">
-        <v>191427945.58423001</v>
+      <c r="E29" s="46">
+        <v>184145516.16488999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>23</v>
@@ -4032,13 +4449,13 @@
       <c r="D30" s="9">
         <v>53983607</v>
       </c>
-      <c r="E30" s="49">
-        <v>61257926.654799998</v>
+      <c r="E30" s="46">
+        <v>57745678.174589999</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>24</v>
@@ -4046,171 +4463,171 @@
       <c r="D31" s="9">
         <v>258599359</v>
       </c>
-      <c r="E31" s="49">
-        <v>258599359.04539999</v>
+      <c r="E31" s="46">
+        <v>260598159.45989001</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="50" t="s">
+      <c r="B32" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="47">
         <v>98895542</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="46">
         <v>99192828.053414002</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="52">
-        <v>0</v>
-      </c>
-      <c r="E33" s="52">
-        <v>0.58959853122299999</v>
+      <c r="B33" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="49">
+        <v>0</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0.57998894513099997</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="51" t="s">
+      <c r="B34" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="49">
+        <v>0</v>
+      </c>
+      <c r="E34" s="49">
+        <v>1.0156545448700001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="52">
-        <v>0</v>
-      </c>
-      <c r="E34" s="52">
-        <v>1.1356545448699999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="51" t="s">
+      <c r="D35" s="49">
+        <v>0</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0.68141459414000005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="52">
-        <v>0</v>
-      </c>
-      <c r="E35" s="52">
-        <v>0.687016978133692</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="51" t="s">
+      <c r="D36" s="49">
+        <v>0</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0.21538314441</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="52">
-        <v>0</v>
-      </c>
-      <c r="E36" s="52">
-        <v>0.2175383144318</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="51" t="s">
+      <c r="D37" s="49">
+        <v>0</v>
+      </c>
+      <c r="E37" s="49">
+        <v>0.75148961247000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="52">
-        <v>0</v>
-      </c>
-      <c r="E37" s="52">
-        <v>0.71936489999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="51" t="s">
+      <c r="D38" s="49">
+        <v>0</v>
+      </c>
+      <c r="E38" s="49">
+        <v>0.98775474584</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="52">
-        <v>0</v>
-      </c>
-      <c r="E38" s="52">
-        <v>0.98978183624024996</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="52">
-        <v>0</v>
-      </c>
-      <c r="E39" s="52">
-        <v>1.0199578123834101</v>
+      <c r="D39" s="49">
+        <v>0</v>
+      </c>
+      <c r="E39" s="49">
+        <v>1.09995771738458</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="52">
-        <v>0</v>
-      </c>
-      <c r="E40" s="52">
+      <c r="B40" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0</v>
+      </c>
+      <c r="E40" s="49">
         <v>0.88246551046814703</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" s="10">
         <v>0</v>
@@ -4218,16 +4635,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="10">
         <v>0</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
@@ -4235,16 +4652,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="D46" s="10">
         <v>0</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" s="10">
         <v>0</v>
@@ -4252,16 +4669,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="10">
         <v>0</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="10">
         <v>0</v>
@@ -4269,16 +4686,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" s="10">
         <v>0</v>
@@ -4286,16 +4703,16 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" s="10">
         <v>0</v>
@@ -4303,16 +4720,16 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F50" s="10">
         <v>0</v>
@@ -4320,16 +4737,16 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" s="10">
         <v>0</v>
@@ -4337,16 +4754,16 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F52" s="10">
         <v>0</v>
@@ -4354,16 +4771,16 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="10">
         <v>0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F53" s="10">
         <v>0</v>
@@ -4371,16 +4788,16 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F54" s="10">
         <v>0</v>
@@ -4388,16 +4805,16 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="10">
         <v>0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F55" s="10">
         <v>0</v>
@@ -4405,16 +4822,16 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F56" s="10">
         <v>0</v>
@@ -4422,16 +4839,16 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F57" s="10">
         <v>0</v>
@@ -4439,16 +4856,16 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F58" s="10">
         <v>0</v>
@@ -4456,16 +4873,16 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F59" s="10">
         <v>0</v>
@@ -4473,16 +4890,16 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F60" s="10">
         <v>0</v>
@@ -4490,16 +4907,16 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="10">
         <v>0.88246550999999995</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F61" s="10">
         <v>0</v>
@@ -4507,16 +4924,16 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="10">
         <v>4.5088683999999997E-2</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F62" s="9">
         <v>0.18246551</v>
@@ -4524,16 +4941,16 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="9">
         <v>32342083</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F63" s="9">
         <v>0</v>
@@ -4541,16 +4958,16 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="9">
         <v>193909688</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F64" s="9">
         <v>7111</v>
@@ -4558,16 +4975,16 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="9">
         <v>284924387</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F65" s="9">
         <v>11374184</v>
@@ -4575,16 +4992,16 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="9">
         <v>26052530</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F66" s="9">
         <v>2990881</v>
@@ -4592,16 +5009,16 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="9">
         <v>29835944</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F67" s="9">
         <v>297352</v>
@@ -4609,16 +5026,16 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="9">
         <v>198895545</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F68" s="9">
         <v>60948</v>
@@ -4626,16 +5043,16 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="9">
         <v>189752199</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F69" s="9">
         <v>9009978</v>
@@ -4643,16 +5060,16 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="9">
         <v>16103266</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F70" s="9">
         <v>0</v>
@@ -4660,16 +5077,16 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="9">
         <v>183005592</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F71" s="9">
         <v>8422353</v>
@@ -4677,16 +5094,16 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="9">
         <v>53983607</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F72" s="9">
         <v>7274319</v>
@@ -4694,16 +5111,16 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D73" s="9">
         <v>258599359</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F73" s="9">
         <v>0</v>
@@ -4711,16 +5128,16 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="9">
         <v>98895542</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F74" s="9">
         <v>297286</v>
@@ -4728,14 +5145,14 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="C75" s="73" t="s">
-        <v>189</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F75" s="9">
         <v>0</v>
@@ -4743,14 +5160,14 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="73" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="C76" s="61" t="s">
+        <v>189</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F76" s="9">
         <v>0</v>
@@ -4758,14 +5175,14 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="73" t="s">
-        <v>191</v>
+        <v>195</v>
+      </c>
+      <c r="C77" s="61" t="s">
+        <v>190</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -4773,14 +5190,14 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="73" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="C78" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -4788,14 +5205,14 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" s="73" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="C79" s="61" t="s">
+        <v>192</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F79" s="9">
         <v>0</v>
@@ -4803,14 +5220,14 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="73" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>222</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -4818,14 +5235,14 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="73" t="s">
-        <v>194</v>
+        <v>199</v>
+      </c>
+      <c r="C81" s="61" t="s">
+        <v>193</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F81" s="9">
         <v>0</v>
@@ -4833,7 +5250,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>5</v>
@@ -4842,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F82" s="10">
         <v>0</v>
@@ -4850,7 +5267,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>6</v>
@@ -4859,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F83" s="10">
         <v>0</v>
@@ -4867,7 +5284,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>7</v>
@@ -4876,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F84" s="10">
         <v>0</v>
@@ -4884,7 +5301,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>8</v>
@@ -4893,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F85" s="10">
         <v>0</v>
@@ -4901,7 +5318,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>13</v>
@@ -4910,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F86" s="10">
         <v>0</v>
@@ -4918,7 +5335,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>16</v>
@@ -4927,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" s="10">
         <v>0</v>
@@ -4935,7 +5352,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>17</v>
@@ -4944,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F88" s="10">
         <v>0</v>
@@ -4952,7 +5369,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>19</v>
@@ -4961,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F89" s="10">
         <v>0</v>
@@ -4969,7 +5386,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>20</v>
@@ -4978,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F90" s="10">
         <v>0</v>
@@ -4986,7 +5403,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>23</v>
@@ -4995,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F91" s="10">
         <v>0</v>
@@ -5003,7 +5420,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>24</v>
@@ -5012,162 +5429,162 @@
         <v>0</v>
       </c>
       <c r="E92" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="52">
+        <v>0</v>
+      </c>
+      <c r="E93" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F92" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="55">
-        <v>0</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F93" s="55">
+      <c r="F93" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="43">
+        <v>0</v>
+      </c>
+      <c r="E94" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94" s="46">
-        <v>0</v>
-      </c>
-      <c r="E94" s="45" t="s">
+      <c r="F94" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F94" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="54" t="s">
+      <c r="C95" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" s="52">
+        <v>0</v>
+      </c>
+      <c r="E95" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="F95" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="55">
-        <v>0</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F95" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="54" t="s">
+      <c r="D96" s="43">
+        <v>0</v>
+      </c>
+      <c r="E96" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="F96" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="46">
-        <v>0</v>
-      </c>
-      <c r="E96" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="54" t="s">
+      <c r="D97" s="52">
+        <v>0</v>
+      </c>
+      <c r="E97" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="F97" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D97" s="55">
-        <v>0</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="54" t="s">
+      <c r="D98" s="49">
+        <v>0</v>
+      </c>
+      <c r="E98" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="F98" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="52">
-        <v>0</v>
-      </c>
-      <c r="E98" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F98" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="54" t="s">
+      <c r="D99" s="53">
+        <v>0</v>
+      </c>
+      <c r="E99" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="F99" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="56">
-        <v>0</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F99" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="54" t="s">
+      <c r="D100" s="49">
+        <v>0</v>
+      </c>
+      <c r="E100" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="52">
-        <v>0</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="F100" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="54" t="s">
+      <c r="C101" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="53">
+        <v>0</v>
+      </c>
+      <c r="E101" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="56">
-        <v>0</v>
-      </c>
-      <c r="E101" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F101" s="55">
+      <c r="F101" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5180,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5197,299 +5614,299 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="97" t="s">
+      <c r="G7" s="83" t="s">
         <v>98</v>
-      </c>
-      <c r="G7" s="97" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="41">
-        <v>32342083.021540001</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="45">
+      <c r="D8" s="82">
+        <v>375410872.02153999</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="42">
         <v>32342083</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="96">
-        <v>193916799.03564</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="45">
+      <c r="D9" s="82">
+        <v>193721525.01451001</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="42">
         <v>193909688</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="96">
-        <v>296298571.04854</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="45">
+      <c r="D10" s="82">
+        <v>290131142.51244998</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="42">
         <v>284924387</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="96">
-        <v>29043411.568879999</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="45">
+      <c r="D11" s="82">
+        <v>29132321.549869999</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="42">
         <v>26052530</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="82">
         <v>30133296.96759</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="45">
+      <c r="E12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="42">
         <v>29835944</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="96">
-        <v>198956493.56595999</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="45">
+      <c r="D13" s="82">
+        <v>198991214.72698</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="42">
         <v>198895545</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="96">
-        <v>198762177.94564</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="45">
+      <c r="D14" s="82">
+        <v>191961234.56784999</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="42">
         <v>189752199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="96">
-        <v>16103266.0012</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="45">
+      <c r="D15" s="82">
+        <v>17212459.31569</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="42">
         <v>16103266</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="96">
-        <v>191427945.58423001</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="45">
+      <c r="D16" s="82">
+        <v>184145516.16488999</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="42">
         <v>183005592</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="96">
-        <v>61257926.654799998</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="45">
+      <c r="D17" s="82">
+        <v>57745678.174589999</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="42">
         <v>53983607</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="96">
-        <v>258599359.04539999</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="45">
+      <c r="D18" s="82">
+        <v>260598159.45989001</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="42">
         <v>258599359</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="96">
+      <c r="D19" s="82">
         <v>99192828.053414002</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="45">
+      <c r="E19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="42">
         <v>98895542</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.57998894513099997</v>
+      </c>
+      <c r="E20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="46">
-        <v>0.58959853122299999</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5497,19 +5914,19 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1.0156545448700001</v>
+      </c>
+      <c r="E21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="46">
-        <v>1.1356545448699999</v>
-      </c>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5517,19 +5934,19 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="43">
+        <v>0.68141459414000005</v>
+      </c>
+      <c r="E22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="46">
-        <v>0.687016978133692</v>
-      </c>
-      <c r="E22" t="s">
-        <v>107</v>
-      </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5537,19 +5954,19 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0.21538314441</v>
+      </c>
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="46">
-        <v>0.2175383144318</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5557,19 +5974,19 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="43">
+        <v>0.75148961247000001</v>
+      </c>
+      <c r="E24" t="s">
         <v>110</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="46">
-        <v>0.71936489999999997</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -5577,19 +5994,19 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0.98775474584</v>
+      </c>
+      <c r="E25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="46">
-        <v>0.98978183624024996</v>
-      </c>
-      <c r="E25" t="s">
-        <v>113</v>
-      </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5597,19 +6014,19 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="43">
+        <v>1.09995771738458</v>
+      </c>
+      <c r="E26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="46">
-        <v>1.0199578123834101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5617,19 +6034,19 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="43">
+        <v>0.88246551046814703</v>
+      </c>
+      <c r="E27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="46">
-        <v>0.88246551046814703</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5638,263 +6055,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F24:F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>